--- a/data/trans_dic/P56$nadie-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.09905683145920575</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06327320319354122</v>
+        <v>0.06327320319354124</v>
       </c>
     </row>
     <row r="5">
@@ -712,34 +712,34 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03628904919996565</v>
+        <v>0.03559414335932256</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02255600651821644</v>
+        <v>0.02459587985640364</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0143094046481161</v>
+        <v>0.01403868545379175</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02989028159582741</v>
+        <v>0.0293272709645039</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03660933865225736</v>
+        <v>0.03260877953581672</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01563714741298692</v>
+        <v>0.01682037364884049</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02048688067268815</v>
+        <v>0.0203956178009273</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04235944185948562</v>
+        <v>0.04347116077291993</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03369119935296554</v>
+        <v>0.03101177354793089</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.2083557245221391</v>
+        <v>0.1983061046080036</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3731789046828163</v>
+        <v>0.3777171447053349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1372281746722701</v>
+        <v>0.1556434810626125</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1985718585489699</v>
+        <v>0.2118982038440622</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.151718980229664</v>
+        <v>0.1368337717045759</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1785869011999447</v>
+        <v>0.1780199996766943</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1338361458164311</v>
+        <v>0.1274124604262006</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1425542135512257</v>
+        <v>0.1355253724163963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1161891871219264</v>
+        <v>0.1229289899206507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1852460487503927</v>
+        <v>0.1770488779246128</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1099644630157262</v>
+        <v>0.1058067737151792</v>
       </c>
     </row>
     <row r="7">
@@ -840,38 +840,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05797647617380981</v>
+        <v>0.05742912665523958</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.03480694962526505</v>
+        <v>0.03176557950291861</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05048817466174371</v>
+        <v>0.09433577730683207</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01291371413479509</v>
+        <v>0.01387638005577681</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05040848263097889</v>
+        <v>0.05115868339451502</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02696429540771812</v>
+        <v>0.02808885654570683</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0822374741606572</v>
+        <v>0.08598157292232547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01983336272404064</v>
+        <v>0.01971068307666777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03504704160715892</v>
+        <v>0.03419636989312559</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03602895658617489</v>
+        <v>0.03611119347580729</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4399667306942453</v>
+        <v>0.4443828580441133</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.192051828702565</v>
+        <v>0.1858970515834664</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1987714648133982</v>
+        <v>0.1860464658736148</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.429595416768336</v>
+        <v>0.4395704790064343</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1246625099803693</v>
+        <v>0.1359625838313478</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2703467453412611</v>
+        <v>0.2982531162928734</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08707881669871329</v>
+        <v>0.08720917533770124</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3427308724665881</v>
+        <v>0.3479031209573169</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1100320099971853</v>
+        <v>0.1129823201108313</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1940625112522432</v>
+        <v>0.1975350687380817</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09801665625630231</v>
+        <v>0.1006458266744033</v>
       </c>
     </row>
     <row r="10">
@@ -983,10 +983,10 @@
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.0225657165351225</v>
+        <v>0.02138451416092355</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03047647147832587</v>
+        <v>0.02967233872943763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01537895035153743</v>
+        <v>0.01507795270876278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04349992503884358</v>
+        <v>0.0378123625131058</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006217233516400558</v>
+        <v>0.006131415771666808</v>
       </c>
     </row>
     <row r="12">
@@ -1012,36 +1012,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3587491800084355</v>
+        <v>0.3993106771704091</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.2773349780120803</v>
+        <v>0.3143559009590888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1306659920642937</v>
+        <v>0.09516439908930091</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.2005925830911086</v>
+        <v>0.2186571914620701</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2783900881026392</v>
+        <v>0.2727636441713518</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07817801650880771</v>
+        <v>0.08223262722328296</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2198933354780313</v>
+        <v>0.1753209989618691</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1405988085389816</v>
+        <v>0.1480203858852476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2300726349489539</v>
+        <v>0.2215525188092144</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06038431688479114</v>
+        <v>0.06162604261040069</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0.09460980324202038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0477747305019844</v>
+        <v>0.04777473050198439</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2030746820041152</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3237795146494065</v>
+        <v>0.3066588902407636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1761229732930924</v>
+        <v>0.176630235902494</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.008058329889134628</v>
+        <v>0.009384760774426465</v>
       </c>
     </row>
     <row r="15">
@@ -1142,34 +1142,34 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.4119416115298444</v>
+        <v>0.4124279262003271</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1504710488883621</v>
+        <v>0.1739102544532994</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8074724448769419</v>
+        <v>0.7831386948718917</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3220289110088763</v>
+        <v>0.3191638128316214</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7808029762019514</v>
+        <v>0.7823647892673263</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08163473000458042</v>
+        <v>0.08343608015131447</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6806671949579486</v>
+        <v>0.6771861431140184</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2697849022546399</v>
+        <v>0.2388025434428828</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5373531898806572</v>
+        <v>0.5282588258503873</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07360963177190286</v>
+        <v>0.0810110433046215</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.1610342208269229</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04669827065404174</v>
+        <v>0.04669827065404173</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09724255523117778</v>
@@ -1228,40 +1228,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0183307705443064</v>
+        <v>0.0328292383707826</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02654769632255969</v>
+        <v>0.02456820776035518</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05187587566810475</v>
+        <v>0.05596989098476819</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03655763184242824</v>
+        <v>0.03605323065323286</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1051869873863304</v>
+        <v>0.1062656240626784</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03164771097848058</v>
+        <v>0.03007768011472727</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05382788099655002</v>
+        <v>0.05434078999124323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03088931513184108</v>
+        <v>0.03313613845115112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09848223481676346</v>
+        <v>0.09231540027758013</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03548261686766202</v>
+        <v>0.03498422990808394</v>
       </c>
     </row>
     <row r="18">
@@ -1272,40 +1272,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1810365401380803</v>
+        <v>0.1944802847888645</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1803879668816859</v>
+        <v>0.1815230080690032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1914862712204389</v>
+        <v>0.190453350910136</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1074583956489373</v>
+        <v>0.1047240861317767</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.230576120472546</v>
+        <v>0.2367869095532273</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0685184321859727</v>
+        <v>0.06801772027426038</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1597117231719035</v>
+        <v>0.1665191386424807</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08856062011559104</v>
+        <v>0.08922006631861941</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2000954387679651</v>
+        <v>0.1915124860432706</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0663634899299312</v>
+        <v>0.06894353856329233</v>
       </c>
     </row>
     <row r="19">
@@ -1580,34 +1580,34 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1103</v>
+        <v>1203</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>986</v>
+        <v>968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1958</v>
+        <v>1921</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2639</v>
+        <v>2351</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1112</v>
+        <v>1197</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3792</v>
+        <v>3892</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3268</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="7">
@@ -1619,37 +1619,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5329</v>
+        <v>5072</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8960</v>
+        <v>9069</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3419</v>
+        <v>3878</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9709</v>
+        <v>10361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10457</v>
+        <v>9431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11700</v>
+        <v>11663</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9647</v>
+        <v>9184</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10142</v>
+        <v>9642</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>10980</v>
+        <v>11617</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16584</v>
+        <v>15850</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10667</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="8">
@@ -1752,38 +1752,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>1338</v>
+        <v>1221</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1180</v>
+        <v>2205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>988</v>
+        <v>1062</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2164</v>
+        <v>2196</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2716</v>
+        <v>2829</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3082</v>
+        <v>3222</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2029</v>
+        <v>2017</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2137</v>
+        <v>2085</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5014</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="11">
@@ -1794,38 +1794,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6202</v>
+        <v>6264</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4958</v>
+        <v>4799</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>7640</v>
+        <v>7151</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10044</v>
+        <v>10277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9538</v>
+        <v>10402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11604</v>
+        <v>12802</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8771</v>
+        <v>8784</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12844</v>
+        <v>13038</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>11259</v>
+        <v>11561</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11832</v>
+        <v>12044</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13640</v>
+        <v>14006</v>
       </c>
     </row>
     <row r="12">
@@ -1939,10 +1939,10 @@
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>882</v>
+        <v>836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1264</v>
+        <v>1231</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -1951,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2380</v>
+        <v>2069</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15">
@@ -1968,36 +1968,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3336</v>
+        <v>3714</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>3670</v>
+        <v>4160</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3025</v>
+        <v>2203</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>7840</v>
+        <v>8546</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11547</v>
+        <v>11313</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4509</v>
+        <v>4743</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5006</v>
+        <v>3991</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8410</v>
+        <v>8854</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12587</v>
+        <v>12121</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>4881</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="16">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6716</v>
+        <v>6361</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6473</v>
+        <v>6491</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>512</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19">
@@ -2142,34 +2142,34 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>6594</v>
+        <v>6602</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3321</v>
+        <v>3838</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4439</v>
+        <v>4306</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6317</v>
+        <v>6261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16196</v>
+        <v>16229</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3380</v>
+        <v>3455</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4301</v>
+        <v>4279</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>7013</v>
+        <v>6208</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19748</v>
+        <v>19414</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>4673</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="20">
@@ -2272,40 +2272,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>852</v>
+        <v>1525</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1893</v>
+        <v>1752</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4733</v>
+        <v>5107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7463</v>
+        <v>7360</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>17951</v>
+        <v>18135</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8605</v>
+        <v>8178</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7412</v>
+        <v>7483</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8731</v>
+        <v>9366</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>23828</v>
+        <v>22336</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>13500</v>
+        <v>13310</v>
       </c>
     </row>
     <row r="23">
@@ -2316,40 +2316,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8412</v>
+        <v>9037</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12861</v>
+        <v>12942</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17471</v>
+        <v>17377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21936</v>
+        <v>21378</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>39349</v>
+        <v>40409</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18630</v>
+        <v>18494</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21993</v>
+        <v>22931</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>25031</v>
+        <v>25217</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>48414</v>
+        <v>46337</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>25249</v>
+        <v>26231</v>
       </c>
     </row>
     <row r="24">
